--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H2">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I2">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J2">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N2">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O2">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P2">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q2">
-        <v>24.42881427660799</v>
+        <v>14.90424724985</v>
       </c>
       <c r="R2">
-        <v>97.71525710643198</v>
+        <v>59.61698899939999</v>
       </c>
       <c r="S2">
-        <v>0.00711373067945555</v>
+        <v>0.003892326282255154</v>
       </c>
       <c r="T2">
-        <v>0.003966096529482822</v>
+        <v>0.002066089125659073</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H3">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I3">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J3">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.715908</v>
       </c>
       <c r="O3">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P3">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q3">
-        <v>13.55456813124266</v>
+        <v>8.757613279644666</v>
       </c>
       <c r="R3">
-        <v>81.32740878745599</v>
+        <v>52.54567967786799</v>
       </c>
       <c r="S3">
-        <v>0.003947123510383496</v>
+        <v>0.002287098956878265</v>
       </c>
       <c r="T3">
-        <v>0.003300941565270961</v>
+        <v>0.001821025503047473</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H4">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I4">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J4">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N4">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O4">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P4">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q4">
-        <v>159.8958554693974</v>
+        <v>215.739109536333</v>
       </c>
       <c r="R4">
-        <v>959.3751328163841</v>
+        <v>1294.434657217998</v>
       </c>
       <c r="S4">
-        <v>0.04656206558742486</v>
+        <v>0.05634145704118292</v>
       </c>
       <c r="T4">
-        <v>0.03893940923259082</v>
+        <v>0.04485998729625966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H5">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I5">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J5">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N5">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O5">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P5">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q5">
-        <v>14.015948121088</v>
+        <v>11.502902038566</v>
       </c>
       <c r="R5">
-        <v>56.06379248435199</v>
+        <v>46.011608154264</v>
       </c>
       <c r="S5">
-        <v>0.004081478495913533</v>
+        <v>0.003004046241071815</v>
       </c>
       <c r="T5">
-        <v>0.002275534234737201</v>
+        <v>0.001594580418386577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H6">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I6">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J6">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N6">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O6">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P6">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q6">
-        <v>18.67745512772267</v>
+        <v>95.0366950996895</v>
       </c>
       <c r="R6">
-        <v>112.064730766336</v>
+        <v>570.220170598137</v>
       </c>
       <c r="S6">
-        <v>0.005438920778216499</v>
+        <v>0.0248193565172447</v>
       </c>
       <c r="T6">
-        <v>0.004548517324021205</v>
+        <v>0.01976157658207343</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.972416</v>
+        <v>9.673685499999999</v>
       </c>
       <c r="H7">
-        <v>29.944832</v>
+        <v>19.347371</v>
       </c>
       <c r="I7">
-        <v>0.1033656722518704</v>
+        <v>0.115977165622779</v>
       </c>
       <c r="J7">
-        <v>0.08332290573803897</v>
+        <v>0.09051257664205575</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N7">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O7">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P7">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q7">
-        <v>124.388900686336</v>
+        <v>98.15178950790481</v>
       </c>
       <c r="R7">
-        <v>746.3334041180159</v>
+        <v>588.9107370474289</v>
       </c>
       <c r="S7">
-        <v>0.03622235320047651</v>
+        <v>0.02563288058414614</v>
       </c>
       <c r="T7">
-        <v>0.03029240685193596</v>
+        <v>0.02040931771662954</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H8">
         <v>121.239368</v>
       </c>
       <c r="I8">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J8">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N8">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O8">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P8">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q8">
-        <v>65.93756598546132</v>
+        <v>62.26449809253332</v>
       </c>
       <c r="R8">
-        <v>395.6253959127679</v>
+        <v>373.5869885551999</v>
       </c>
       <c r="S8">
-        <v>0.01920118106299392</v>
+        <v>0.01626071671478964</v>
       </c>
       <c r="T8">
-        <v>0.01605776371233242</v>
+        <v>0.0129470479387912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H9">
         <v>121.239368</v>
       </c>
       <c r="I9">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J9">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>2.715908</v>
       </c>
       <c r="O9">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P9">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q9">
-        <v>36.58610771846044</v>
+        <v>36.58610771846043</v>
       </c>
       <c r="R9">
         <v>329.2749694661439</v>
       </c>
       <c r="S9">
-        <v>0.01065396437058736</v>
+        <v>0.009554663596943139</v>
       </c>
       <c r="T9">
-        <v>0.0133647124545024</v>
+        <v>0.01141136855758633</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H10">
         <v>121.239368</v>
       </c>
       <c r="I10">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J10">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N10">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O10">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P10">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q10">
-        <v>431.5863799787796</v>
+        <v>901.2791554665758</v>
       </c>
       <c r="R10">
-        <v>3884.277419809016</v>
+        <v>8111.512399199183</v>
       </c>
       <c r="S10">
-        <v>0.1256790132065513</v>
+        <v>0.2353740169270601</v>
       </c>
       <c r="T10">
-        <v>0.157656231487713</v>
+        <v>0.281112948538928</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H11">
         <v>121.239368</v>
       </c>
       <c r="I11">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J11">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N11">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O11">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P11">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q11">
-        <v>37.83145156447466</v>
+        <v>48.05492085795199</v>
       </c>
       <c r="R11">
-        <v>226.988709386848</v>
+        <v>288.329525147712</v>
       </c>
       <c r="S11">
-        <v>0.01101661155532386</v>
+        <v>0.01254980733421343</v>
       </c>
       <c r="T11">
-        <v>0.009213086668240514</v>
+        <v>0.009992361347201341</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H12">
         <v>121.239368</v>
       </c>
       <c r="I12">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J12">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N12">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O12">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P12">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q12">
-        <v>50.41365970447378</v>
+        <v>397.0285799448773</v>
       </c>
       <c r="R12">
-        <v>453.722937340264</v>
+        <v>3573.257219503895</v>
       </c>
       <c r="S12">
-        <v>0.01468058144953664</v>
+        <v>0.1036862010284646</v>
       </c>
       <c r="T12">
-        <v>0.01841584436678029</v>
+        <v>0.1238349673190318</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.41312266666667</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H13">
         <v>121.239368</v>
       </c>
       <c r="I13">
-        <v>0.2790017050179012</v>
+        <v>0.484510212870336</v>
       </c>
       <c r="J13">
-        <v>0.3373542530344942</v>
+        <v>0.5671926996248948</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N13">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O13">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P13">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q13">
-        <v>335.7470098218427</v>
+        <v>410.0423059376701</v>
       </c>
       <c r="R13">
-        <v>3021.723088396584</v>
+        <v>3690.380753439031</v>
       </c>
       <c r="S13">
-        <v>0.0977703533729081</v>
+        <v>0.1070848072688652</v>
       </c>
       <c r="T13">
-        <v>0.1226466143449255</v>
+        <v>0.1278940059233561</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H14">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I14">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J14">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N14">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O14">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P14">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q14">
-        <v>8.169430186558666</v>
+        <v>2.969903135966666</v>
       </c>
       <c r="R14">
-        <v>49.016581119352</v>
+        <v>17.8194188158</v>
       </c>
       <c r="S14">
-        <v>0.002378958122721546</v>
+        <v>0.0007756065662418073</v>
       </c>
       <c r="T14">
-        <v>0.001989499879766256</v>
+        <v>0.0006175506019141556</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H15">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I15">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J15">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.715908</v>
       </c>
       <c r="O15">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P15">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q15">
-        <v>4.532888776479555</v>
+        <v>1.745090691719555</v>
       </c>
       <c r="R15">
-        <v>40.79599898831599</v>
+        <v>15.705816225476</v>
       </c>
       <c r="S15">
-        <v>0.001319988337980019</v>
+        <v>0.0004557400484863274</v>
       </c>
       <c r="T15">
-        <v>0.001655840395815675</v>
+        <v>0.0005443014928744955</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H16">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I16">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J16">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N16">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O16">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P16">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q16">
-        <v>53.47201929600546</v>
+        <v>42.989373916154</v>
       </c>
       <c r="R16">
-        <v>481.2481736640491</v>
+        <v>386.904365245386</v>
       </c>
       <c r="S16">
-        <v>0.01557118326953242</v>
+        <v>0.01122691184240951</v>
       </c>
       <c r="T16">
-        <v>0.01953304701751939</v>
+        <v>0.0134085755607611</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H17">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I17">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J17">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N17">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O17">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P17">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q17">
-        <v>4.687182454995333</v>
+        <v>2.292132186508</v>
       </c>
       <c r="R17">
-        <v>28.123094729972</v>
+        <v>13.752793119048</v>
       </c>
       <c r="S17">
-        <v>0.001364919035887643</v>
+        <v>0.0005986029487022802</v>
       </c>
       <c r="T17">
-        <v>0.001141468709286307</v>
+        <v>0.0004766174338490993</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H18">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I18">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J18">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N18">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O18">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P18">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q18">
-        <v>6.246073346041223</v>
+        <v>18.93754002311767</v>
       </c>
       <c r="R18">
-        <v>56.214660114371</v>
+        <v>170.437860208059</v>
       </c>
       <c r="S18">
-        <v>0.001818871889758894</v>
+        <v>0.004945642910881099</v>
       </c>
       <c r="T18">
-        <v>0.002281657695919706</v>
+        <v>0.005906702359289162</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.007042333333334</v>
+        <v>1.927632333333333</v>
       </c>
       <c r="H19">
-        <v>15.021127</v>
+        <v>5.782896999999999</v>
       </c>
       <c r="I19">
-        <v>0.03456732011577651</v>
+        <v>0.0231102545542569</v>
       </c>
       <c r="J19">
-        <v>0.04179699352128982</v>
+        <v>0.02705405855532591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N19">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O19">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P19">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q19">
-        <v>41.59786179687234</v>
+        <v>19.55827104674477</v>
       </c>
       <c r="R19">
-        <v>374.380756171851</v>
+        <v>176.0244394207029</v>
       </c>
       <c r="S19">
-        <v>0.01211339945989599</v>
+        <v>0.005107750237535871</v>
       </c>
       <c r="T19">
-        <v>0.01519547982298248</v>
+        <v>0.00610031110663789</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H20">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I20">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J20">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N20">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O20">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P20">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q20">
-        <v>98.20802360363399</v>
+        <v>41.29645057545</v>
       </c>
       <c r="R20">
-        <v>392.832094414536</v>
+        <v>165.1858023018</v>
       </c>
       <c r="S20">
-        <v>0.02859841753133471</v>
+        <v>0.01078479558504994</v>
       </c>
       <c r="T20">
-        <v>0.01594438834285588</v>
+        <v>0.005724686797792712</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H21">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I21">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J21">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.715908</v>
       </c>
       <c r="O21">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P21">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q21">
-        <v>54.49168886779799</v>
+        <v>24.265455202066</v>
       </c>
       <c r="R21">
-        <v>326.9501332067879</v>
+        <v>145.592731212396</v>
       </c>
       <c r="S21">
-        <v>0.01586811355168343</v>
+        <v>0.006337057313299543</v>
       </c>
       <c r="T21">
-        <v>0.0132703512944043</v>
+        <v>0.005045668420724219</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H22">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I22">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J22">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N22">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O22">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P22">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q22">
-        <v>642.8087655117346</v>
+        <v>597.7664839295011</v>
       </c>
       <c r="R22">
-        <v>3856.852593070407</v>
+        <v>3586.598903577006</v>
       </c>
       <c r="S22">
-        <v>0.1871874903327774</v>
+        <v>0.156110010592683</v>
       </c>
       <c r="T22">
-        <v>0.1565431042917093</v>
+        <v>0.1242973373387875</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H23">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I23">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J23">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N23">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O23">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P23">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q23">
-        <v>56.34651556629899</v>
+        <v>31.872057511302</v>
       </c>
       <c r="R23">
-        <v>225.386062265196</v>
+        <v>127.488230045208</v>
       </c>
       <c r="S23">
-        <v>0.01640824363907922</v>
+        <v>0.008323563413914589</v>
       </c>
       <c r="T23">
-        <v>0.009148037940177029</v>
+        <v>0.004418237991666731</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H24">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I24">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J24">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N24">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O24">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P24">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q24">
-        <v>75.08657330927551</v>
+        <v>263.3261590636815</v>
       </c>
       <c r="R24">
-        <v>450.519439855653</v>
+        <v>1579.956954382089</v>
       </c>
       <c r="S24">
-        <v>0.02186539445251981</v>
+        <v>0.06876907719973474</v>
       </c>
       <c r="T24">
-        <v>0.01828581983804079</v>
+        <v>0.05475506122073887</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>60.1916805</v>
+        <v>26.8036935</v>
       </c>
       <c r="H25">
-        <v>120.383361</v>
+        <v>53.607387</v>
       </c>
       <c r="I25">
-        <v>0.4155477325003728</v>
+        <v>0.3213476808142776</v>
       </c>
       <c r="J25">
-        <v>0.33497237323059</v>
+        <v>0.2507908037954016</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N25">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O25">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P25">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q25">
-        <v>500.0647168672155</v>
+        <v>271.9574129680354</v>
       </c>
       <c r="R25">
-        <v>3000.388301203293</v>
+        <v>1631.744477808213</v>
       </c>
       <c r="S25">
-        <v>0.1456200729929782</v>
+        <v>0.07102317670959575</v>
       </c>
       <c r="T25">
-        <v>0.1217806715234028</v>
+        <v>0.05654981202569156</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H26">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I26">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J26">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N26">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O26">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P26">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q26">
-        <v>19.15979227026667</v>
+        <v>4.398093518466667</v>
       </c>
       <c r="R26">
-        <v>114.9587536216</v>
+        <v>26.3885611108</v>
       </c>
       <c r="S26">
-        <v>0.005579378538053078</v>
+        <v>0.001148586353055579</v>
       </c>
       <c r="T26">
-        <v>0.004665980802523898</v>
+        <v>0.0009145231932689944</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H27">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I27">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J27">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.715908</v>
       </c>
       <c r="O27">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P27">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q27">
-        <v>10.63099939142222</v>
+        <v>2.584283631152889</v>
       </c>
       <c r="R27">
-        <v>95.6789945228</v>
+        <v>23.258552680376</v>
       </c>
       <c r="S27">
-        <v>0.003095773117258903</v>
+        <v>0.0006748999080406027</v>
       </c>
       <c r="T27">
-        <v>0.003883448085368695</v>
+        <v>0.0008060494764668035</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H28">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I28">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J28">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N28">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O28">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P28">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q28">
-        <v>125.4081078590778</v>
+        <v>63.66244221700401</v>
       </c>
       <c r="R28">
-        <v>1128.6729707317</v>
+        <v>572.961979953036</v>
       </c>
       <c r="S28">
-        <v>0.03651914883088896</v>
+        <v>0.01662579752468133</v>
       </c>
       <c r="T28">
-        <v>0.04581092129005317</v>
+        <v>0.01985659685377559</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H29">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I29">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J29">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N29">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O29">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P29">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q29">
-        <v>10.99286487793333</v>
+        <v>3.394390743208</v>
       </c>
       <c r="R29">
-        <v>65.9571892676</v>
+        <v>20.366344459248</v>
       </c>
       <c r="S29">
-        <v>0.003201149235153219</v>
+        <v>0.0008864638435305797</v>
       </c>
       <c r="T29">
-        <v>0.002677090427790022</v>
+        <v>0.0007058169747067017</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H30">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I30">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J30">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N30">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O30">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P30">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q30">
-        <v>14.64893696158889</v>
+        <v>28.04437323989267</v>
       </c>
       <c r="R30">
-        <v>131.8404326543</v>
+        <v>252.399359159034</v>
       </c>
       <c r="S30">
-        <v>0.004265806399979512</v>
+        <v>0.007323942578321487</v>
       </c>
       <c r="T30">
-        <v>0.005351179517710284</v>
+        <v>0.008747163854367877</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.74303333333333</v>
+        <v>2.854607333333333</v>
       </c>
       <c r="H31">
-        <v>35.2291</v>
+        <v>8.563822</v>
       </c>
       <c r="I31">
-        <v>0.08107085287879547</v>
+        <v>0.03422369555905032</v>
       </c>
       <c r="J31">
-        <v>0.09802663038937567</v>
+        <v>0.04006402705173345</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N31">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O31">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P31">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q31">
-        <v>97.55960608203335</v>
+        <v>28.96360628108644</v>
       </c>
       <c r="R31">
-        <v>878.0364547383</v>
+        <v>260.6724565297779</v>
       </c>
       <c r="S31">
-        <v>0.02840959675746179</v>
+        <v>0.007564005351420736</v>
       </c>
       <c r="T31">
-        <v>0.0356380102659296</v>
+        <v>0.00903387669914749</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H32">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I32">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J32">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.631588</v>
+        <v>1.5407</v>
       </c>
       <c r="N32">
-        <v>3.263176</v>
+        <v>3.0814</v>
       </c>
       <c r="O32">
-        <v>0.06882101692447343</v>
+        <v>0.03356114336260917</v>
       </c>
       <c r="P32">
-        <v>0.04759911448542056</v>
+        <v>0.02282654192720314</v>
       </c>
       <c r="Q32">
-        <v>20.430291354536</v>
+        <v>2.676994496166667</v>
       </c>
       <c r="R32">
-        <v>122.581748127216</v>
+        <v>16.061966977</v>
       </c>
       <c r="S32">
-        <v>0.005949350989914622</v>
+        <v>0.0006991118612170619</v>
       </c>
       <c r="T32">
-        <v>0.00497538521845927</v>
+        <v>0.0005566442697770065</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H33">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I33">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J33">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.715908</v>
       </c>
       <c r="O33">
-        <v>0.03818601886287322</v>
+        <v>0.01972025221169104</v>
       </c>
       <c r="P33">
-        <v>0.03961625601066862</v>
+        <v>0.02011903285273785</v>
       </c>
       <c r="Q33">
-        <v>11.33594831785867</v>
+        <v>1.572979980548889</v>
       </c>
       <c r="R33">
-        <v>102.023534860728</v>
+        <v>14.15681982494</v>
       </c>
       <c r="S33">
-        <v>0.003301055974980007</v>
+        <v>0.0004107923880431639</v>
       </c>
       <c r="T33">
-        <v>0.004140962215306585</v>
+        <v>0.0004906194020385312</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H34">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I34">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J34">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>10.67936233333334</v>
+        <v>22.301646</v>
       </c>
       <c r="N34">
-        <v>32.038087</v>
+        <v>66.904938</v>
       </c>
       <c r="O34">
-        <v>0.4504596600887709</v>
+        <v>0.4857978442449273</v>
       </c>
       <c r="P34">
-        <v>0.4673313885021416</v>
+        <v>0.4956215916122303</v>
       </c>
       <c r="Q34">
-        <v>133.7240062752714</v>
+        <v>38.74951878851</v>
       </c>
       <c r="R34">
-        <v>1203.516056477442</v>
+        <v>348.74566909659</v>
       </c>
       <c r="S34">
-        <v>0.03894075886159595</v>
+        <v>0.01011965031691052</v>
       </c>
       <c r="T34">
-        <v>0.04884867518255594</v>
+        <v>0.01208614602371841</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H35">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I35">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J35">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.9361179999999999</v>
+        <v>1.189092</v>
       </c>
       <c r="N35">
-        <v>1.872236</v>
+        <v>2.378184</v>
       </c>
       <c r="O35">
-        <v>0.03948582161753102</v>
+        <v>0.02590204912269207</v>
       </c>
       <c r="P35">
-        <v>0.0273098281268696</v>
+        <v>0.01761722489342626</v>
       </c>
       <c r="Q35">
-        <v>11.721809355196</v>
+        <v>2.06606915002</v>
       </c>
       <c r="R35">
-        <v>70.33085613117601</v>
+        <v>12.39641490012</v>
       </c>
       <c r="S35">
-        <v>0.003413419656173553</v>
+        <v>0.0005395653412593748</v>
       </c>
       <c r="T35">
-        <v>0.002854610146638523</v>
+        <v>0.0004296107276158112</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H36">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I36">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J36">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.247457666666667</v>
+        <v>9.824249</v>
       </c>
       <c r="N36">
-        <v>3.742373</v>
+        <v>29.472747</v>
       </c>
       <c r="O36">
-        <v>0.05261824994436758</v>
+        <v>0.2140020958778281</v>
       </c>
       <c r="P36">
-        <v>0.05458903867708846</v>
+        <v>0.2183296213102325</v>
       </c>
       <c r="Q36">
-        <v>15.62031810876867</v>
+        <v>17.06981274873167</v>
       </c>
       <c r="R36">
-        <v>140.582862978918</v>
+        <v>153.628314738585</v>
       </c>
       <c r="S36">
-        <v>0.004548674974356222</v>
+        <v>0.004457875643181579</v>
       </c>
       <c r="T36">
-        <v>0.005706019934616177</v>
+        <v>0.00532414997473144</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.521722</v>
+        <v>1.737518333333333</v>
       </c>
       <c r="H37">
-        <v>37.565166</v>
+        <v>5.212555</v>
       </c>
       <c r="I37">
-        <v>0.0864467172352836</v>
+        <v>0.0208309905793004</v>
       </c>
       <c r="J37">
-        <v>0.1045268440862112</v>
+        <v>0.02438583433058843</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>8.307871</v>
+        <v>10.14626633333333</v>
       </c>
       <c r="N37">
-        <v>24.923613</v>
+        <v>30.438799</v>
       </c>
       <c r="O37">
-        <v>0.3504292325619838</v>
+        <v>0.2210166151802524</v>
       </c>
       <c r="P37">
-        <v>0.3635543741978111</v>
+        <v>0.2254859874041698</v>
       </c>
       <c r="Q37">
-        <v>104.028851073862</v>
+        <v>17.62932376904944</v>
       </c>
       <c r="R37">
-        <v>936.2596596647581</v>
+        <v>158.663913921445</v>
       </c>
       <c r="S37">
-        <v>0.03029345677826325</v>
+        <v>0.004603995028688699</v>
       </c>
       <c r="T37">
-        <v>0.03800119138863467</v>
+        <v>0.005498663932707235</v>
       </c>
     </row>
   </sheetData>
